--- a/dataset/models/output/Report-Simplified.xlsx
+++ b/dataset/models/output/Report-Simplified.xlsx
@@ -455,7 +455,7 @@
     <t>FOR:INDEX</t>
   </si>
   <si>
-    <t>FOR:DATEPOINT</t>
+    <t>FOR:YEAR</t>
   </si>
   <si>
     <t>FOR:[Cell.Cycle Life|AZA]</t>
@@ -700,7 +700,7 @@
     <numFmt numFmtId="165" formatCode="$#,##0.000_);($#,##0.000)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,6 +711,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1056,25 +1062,25 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1086,110 +1092,107 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1197,145 +1200,148 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -3057,7 +3063,7 @@
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3107,7 +3113,7 @@
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3157,7 +3163,7 @@
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3207,7 +3213,7 @@
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="29.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3257,7 +3263,7 @@
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="29.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="31.5">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="47"/>
@@ -3303,7 +3309,7 @@
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3343,7 +3349,7 @@
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4383,7 +4389,7 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="20">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4433,7 +4439,7 @@
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="20">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4483,7 +4489,7 @@
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="20">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="13"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>

--- a/dataset/models/output/Report-Simplified.xlsx
+++ b/dataset/models/output/Report-Simplified.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="206">
   <si>
     <t xml:space="preserve">Levelized Cost of Stablized Electricity </t>
   </si>
@@ -407,10 +407,13 @@
     <t>CELL &amp; PACK ASSUMPTIONS</t>
   </si>
   <si>
-    <t>Project Year</t>
-  </si>
-  <si>
-    <t>Year</t>
+    <t/>
+  </si>
+  <si>
+    <t>Project Points</t>
+  </si>
+  <si>
+    <t>Date Points</t>
   </si>
   <si>
     <t>Cycle Life</t>
@@ -434,7 +437,7 @@
     <t>Cell manufacture Cost</t>
   </si>
   <si>
-    <t>Total cell cost</t>
+    <t>Total Cell Cost Per kWh</t>
   </si>
   <si>
     <t>Pack assembly cost as % of cell cost</t>
@@ -443,7 +446,7 @@
     <t>BMS cost as % of cell cost</t>
   </si>
   <si>
-    <t>Total Pack Cost</t>
+    <t>Total Pack Cost Per kWh</t>
   </si>
   <si>
     <t>AZA</t>
@@ -455,7 +458,7 @@
     <t>FOR:INDEX</t>
   </si>
   <si>
-    <t>FOR:YEAR</t>
+    <t>FOR:DATEPOINT</t>
   </si>
   <si>
     <t>FOR:[Cell.Cycle Life|AZA]</t>
@@ -503,7 +506,19 @@
     <t>FOR:[Cell.Factory Cost|LFP]</t>
   </si>
   <si>
+    <t>FOR:[Cell.Total Cost Per kWh|AZA]</t>
+  </si>
+  <si>
+    <t>FOR:[Cell.Total Cost Per kWh|LFP]</t>
+  </si>
+  <si>
     <t>USD</t>
+  </si>
+  <si>
+    <t>FOR:[BatteryPack.Total Cost Per kWh|AZA]</t>
+  </si>
+  <si>
+    <t>FOR:[BatteryPack.Total Cost Per kWh|LFP]</t>
   </si>
   <si>
     <t>ROUND TRIP EFFICIENCY &amp; SELF DISCHARGE</t>
@@ -700,19 +715,13 @@
     <numFmt numFmtId="165" formatCode="$#,##0.000_);($#,##0.000)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1057,7 +1066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="93">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1068,26 +1077,20 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1095,104 +1098,104 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1200,148 +1203,142 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1655,49 +1652,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="1.5764285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="37.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="33.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="41.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="96" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="34.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="7.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="9" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="9" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="9" width="6.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="9" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="9" width="7.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="9" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="9" width="5.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="9" width="4.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="9" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="9" width="7.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="2.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="1.5764285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="35.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="37.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="46.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="41.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="92" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="34.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="6.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="7" width="7.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="7" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="7" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="7" width="30.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="7" width="4.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="7" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="7" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="1"/>
@@ -1706,7 +1703,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="38"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1737,19 +1734,19 @@
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="38"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1779,23 +1776,23 @@
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="38" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="38"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="41"/>
+      <c r="L3" s="39"/>
       <c r="M3" s="1" t="s">
         <v>44</v>
       </c>
@@ -1825,7 +1822,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1833,15 +1830,15 @@
         <v>45</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="38" t="s">
         <v>46</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="38"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="42"/>
+      <c r="L4" s="40"/>
       <c r="M4" s="1" t="s">
         <v>47</v>
       </c>
@@ -1871,7 +1868,7 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1879,12 +1876,12 @@
         <v>48</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="38" t="s">
         <v>49</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="38"/>
+      <c r="I5" s="36"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1915,7 +1912,7 @@
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1923,12 +1920,12 @@
         <v>50</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="41" t="s">
         <v>51</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="38"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1959,7 +1956,7 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1968,7 +1965,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="38"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1999,22 +1996,22 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="36" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="36" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="38"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2045,20 +2042,20 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="36" t="s">
         <v>55</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="38" t="s">
         <v>56</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="38"/>
+      <c r="I9" s="36"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2089,22 +2086,22 @@
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="36" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="36" t="s">
         <v>59</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="38"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -2135,22 +2132,22 @@
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="36" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="38" t="s">
         <v>61</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="38"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2181,7 +2178,7 @@
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2189,12 +2186,12 @@
         <v>63</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="38" t="s">
         <v>64</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="38"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2225,16 +2222,16 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="45"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="38"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -2267,20 +2264,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="46"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="36" t="s">
         <v>65</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="36" t="s">
         <v>67</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="47"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -2314,19 +2311,19 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="36" t="s">
         <v>67</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="38"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -2334,7 +2331,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="48" t="s">
+      <c r="Q15" s="45" t="s">
         <v>70</v>
       </c>
       <c r="R15" s="1"/>
@@ -2359,7 +2356,7 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2367,14 +2364,14 @@
         <v>71</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="36" t="s">
         <v>73</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="38"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -2405,20 +2402,20 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="36" t="s">
         <v>75</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="38"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2449,7 +2446,7 @@
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2457,10 +2454,10 @@
         <v>76</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="44"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="38"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2491,7 +2488,7 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2499,10 +2496,10 @@
         <v>77</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="49"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="38"/>
+      <c r="I19" s="36"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2533,7 +2530,7 @@
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2542,7 +2539,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="38"/>
+      <c r="I20" s="36"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2573,7 +2570,7 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2582,7 +2579,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="38"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2619,14 +2616,14 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="52" t="s">
+      <c r="G22" s="48"/>
+      <c r="H22" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="53"/>
+      <c r="I22" s="50"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -2665,16 +2662,16 @@
         <v>80</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="H23" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="57" t="s">
+      <c r="I23" s="54" t="s">
         <v>54</v>
       </c>
       <c r="J23" s="1"/>
@@ -2715,16 +2712,16 @@
         <v>82</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="58" t="s">
+      <c r="H24" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="I24" s="54" t="s">
         <v>54</v>
       </c>
       <c r="J24" s="1"/>
@@ -2765,16 +2762,16 @@
         <v>84</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="58" t="s">
+      <c r="F25" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="H25" s="58" t="s">
+      <c r="H25" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="I25" s="57" t="s">
+      <c r="I25" s="54" t="s">
         <v>86</v>
       </c>
       <c r="J25" s="1"/>
@@ -2815,16 +2812,16 @@
         <v>87</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="58" t="s">
+      <c r="F26" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="59" t="s">
+      <c r="G26" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="H26" s="58" t="s">
+      <c r="H26" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="I26" s="60" t="s">
+      <c r="I26" s="57" t="s">
         <v>86</v>
       </c>
       <c r="J26" s="1"/>
@@ -2857,7 +2854,7 @@
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2866,7 +2863,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="38"/>
+      <c r="I27" s="36"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2899,7 +2896,7 @@
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2908,7 +2905,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="38"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2939,16 +2936,16 @@
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="44"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="38"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2979,16 +2976,16 @@
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="44"/>
+      <c r="G30" s="36"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="38"/>
+      <c r="I30" s="36"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3025,14 +3022,14 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="G31" s="62"/>
-      <c r="H31" s="61" t="s">
+      <c r="G31" s="59"/>
+      <c r="H31" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="I31" s="63"/>
+      <c r="I31" s="60"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3071,16 +3068,16 @@
         <v>91</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="64" t="s">
+      <c r="F32" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="65" t="s">
+      <c r="G32" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="H32" s="64" t="s">
+      <c r="H32" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="65" t="s">
+      <c r="I32" s="62" t="s">
         <v>93</v>
       </c>
       <c r="J32" s="1"/>
@@ -3121,16 +3118,16 @@
         <v>95</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="64" t="s">
+      <c r="F33" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="65" t="s">
+      <c r="G33" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="64" t="s">
+      <c r="H33" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="I33" s="65" t="s">
+      <c r="I33" s="62" t="s">
         <v>93</v>
       </c>
       <c r="J33" s="1"/>
@@ -3171,16 +3168,16 @@
         <v>98</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="64" t="s">
+      <c r="F34" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="65" t="s">
+      <c r="G34" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="H34" s="64" t="s">
+      <c r="H34" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="I34" s="65" t="s">
+      <c r="I34" s="62" t="s">
         <v>93</v>
       </c>
       <c r="J34" s="1"/>
@@ -3217,20 +3214,20 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="66"/>
-      <c r="F35" s="64" t="s">
+      <c r="E35" s="63"/>
+      <c r="F35" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="65" t="s">
+      <c r="G35" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="H35" s="64" t="s">
+      <c r="H35" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="I35" s="65" t="s">
+      <c r="I35" s="62" t="s">
         <v>103</v>
       </c>
       <c r="J35" s="1"/>
@@ -3266,17 +3263,17 @@
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="31.5">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="66" t="s">
+      <c r="C36" s="44"/>
+      <c r="D36" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="65" t="s">
+      <c r="E36" s="63"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="H36" s="64"/>
-      <c r="I36" s="65" t="s">
+      <c r="H36" s="61"/>
+      <c r="I36" s="62" t="s">
         <v>106</v>
       </c>
       <c r="J36" s="1"/>
@@ -3315,10 +3312,10 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="65"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="62"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -3357,12 +3354,12 @@
         <v>107</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="65" t="s">
+      <c r="F38" s="61"/>
+      <c r="G38" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="H38" s="64"/>
-      <c r="I38" s="65" t="s">
+      <c r="H38" s="61"/>
+      <c r="I38" s="62" t="s">
         <v>108</v>
       </c>
       <c r="J38" s="1"/>
@@ -3401,12 +3398,12 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="69" t="s">
+      <c r="F39" s="65"/>
+      <c r="G39" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="68"/>
-      <c r="I39" s="69" t="s">
+      <c r="H39" s="65"/>
+      <c r="I39" s="66" t="s">
         <v>109</v>
       </c>
       <c r="J39" s="1"/>
@@ -3441,21 +3438,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="46"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -3479,7 +3476,7 @@
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3488,7 +3485,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="38"/>
+      <c r="I41" s="36"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -3522,7 +3519,7 @@
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="11" t="s">
         <v>110</v>
       </c>
       <c r="D42" s="1"/>
@@ -3530,7 +3527,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="38"/>
+      <c r="I42" s="36"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -3564,13 +3561,13 @@
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="13"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="38"/>
+      <c r="I43" s="36"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -3604,17 +3601,17 @@
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="13"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="61" t="s">
+      <c r="F44" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="G44" s="70"/>
-      <c r="H44" s="71" t="s">
+      <c r="G44" s="67"/>
+      <c r="H44" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="I44" s="62"/>
+      <c r="I44" s="59"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -3648,21 +3645,21 @@
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="13"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="G45" s="72" t="s">
+      <c r="G45" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="H45" s="73" t="s">
+      <c r="H45" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="I45" s="69" t="s">
+      <c r="I45" s="66" t="s">
         <v>86</v>
       </c>
       <c r="J45" s="1"/>
@@ -3698,13 +3695,13 @@
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="13"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="38"/>
+      <c r="I46" s="36"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -3737,21 +3734,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="1"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="46"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="43"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="47"/>
+      <c r="P47" s="44"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -3776,7 +3773,7 @@
       <c r="AL47" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
-      <c r="A48" s="55"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3784,21 +3781,21 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="38"/>
+      <c r="I48" s="36"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="55"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="55"/>
-      <c r="V48" s="55"/>
-      <c r="W48" s="55"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="52"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="52"/>
+      <c r="V48" s="52"/>
+      <c r="W48" s="52"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
@@ -3816,9 +3813,9 @@
       <c r="AL48" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
-      <c r="A49" s="55"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="11" t="s">
         <v>116</v>
       </c>
       <c r="D49" s="1"/>
@@ -3826,21 +3823,21 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="38"/>
+      <c r="I49" s="36"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="55"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="55"/>
-      <c r="W49" s="55"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="52"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
@@ -3858,7 +3855,7 @@
       <c r="AL49" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
-      <c r="A50" s="55"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3866,7 +3863,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="38"/>
+      <c r="I50" s="36"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -3874,13 +3871,13 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="55"/>
-      <c r="S50" s="55"/>
-      <c r="T50" s="55"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="55"/>
-      <c r="W50" s="55"/>
+      <c r="Q50" s="52"/>
+      <c r="R50" s="52"/>
+      <c r="S50" s="52"/>
+      <c r="T50" s="52"/>
+      <c r="U50" s="52"/>
+      <c r="V50" s="52"/>
+      <c r="W50" s="52"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
@@ -3898,246 +3895,256 @@
       <c r="AL50" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
-      <c r="A51" s="55"/>
+      <c r="A51" s="71" t="s">
+        <v>117</v>
+      </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F51" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74" t="s">
+      <c r="F51" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74" t="s">
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="M51" s="74"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="74" t="s">
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="P51" s="74"/>
-      <c r="Q51" s="74"/>
-      <c r="R51" s="75" t="s">
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="S51" s="75"/>
-      <c r="T51" s="75"/>
-      <c r="U51" s="74" t="s">
+      <c r="P51" s="72"/>
+      <c r="Q51" s="72"/>
+      <c r="R51" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="V51" s="74"/>
-      <c r="W51" s="74"/>
-      <c r="X51" s="74" t="s">
+      <c r="S51" s="73"/>
+      <c r="T51" s="73"/>
+      <c r="U51" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="Y51" s="74"/>
-      <c r="Z51" s="74"/>
-      <c r="AA51" s="74" t="s">
+      <c r="V51" s="72"/>
+      <c r="W51" s="72"/>
+      <c r="X51" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="AB51" s="74"/>
-      <c r="AC51" s="74"/>
-      <c r="AD51" s="74" t="s">
+      <c r="Y51" s="72"/>
+      <c r="Z51" s="72"/>
+      <c r="AA51" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="AE51" s="74"/>
-      <c r="AF51" s="74"/>
-      <c r="AG51" s="74" t="s">
+      <c r="AB51" s="72"/>
+      <c r="AC51" s="72"/>
+      <c r="AD51" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="AH51" s="74"/>
-      <c r="AI51" s="74"/>
-      <c r="AJ51" s="74" t="s">
+      <c r="AE51" s="72"/>
+      <c r="AF51" s="72"/>
+      <c r="AG51" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="AK51" s="74"/>
-      <c r="AL51" s="74"/>
+      <c r="AH51" s="72"/>
+      <c r="AI51" s="72"/>
+      <c r="AJ51" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK51" s="72"/>
+      <c r="AL51" s="72"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="20.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="G52" s="45" t="s">
+      <c r="F52" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="H52" s="77"/>
-      <c r="I52" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="J52" s="45" t="s">
+      <c r="G52" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="75"/>
+      <c r="I52" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="K52" s="77"/>
-      <c r="L52" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="M52" s="45" t="s">
+      <c r="J52" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="K52" s="75"/>
+      <c r="L52" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="N52" s="77"/>
-      <c r="O52" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="P52" s="45" t="s">
+      <c r="M52" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="N52" s="75"/>
+      <c r="O52" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="Q52" s="77"/>
-      <c r="R52" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="S52" s="79" t="s">
+      <c r="P52" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q52" s="75"/>
+      <c r="R52" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="T52" s="80"/>
-      <c r="U52" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="V52" s="45" t="s">
+      <c r="S52" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="T52" s="78"/>
+      <c r="U52" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="W52" s="77"/>
-      <c r="X52" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y52" s="45" t="s">
+      <c r="V52" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="W52" s="75"/>
+      <c r="X52" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="Z52" s="77"/>
-      <c r="AA52" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB52" s="45" t="s">
+      <c r="Y52" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z52" s="75"/>
+      <c r="AA52" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="AC52" s="77"/>
-      <c r="AD52" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE52" s="45" t="s">
+      <c r="AB52" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC52" s="75"/>
+      <c r="AD52" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="AF52" s="77"/>
-      <c r="AG52" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH52" s="45" t="s">
+      <c r="AE52" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF52" s="75"/>
+      <c r="AG52" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="AI52" s="77"/>
-      <c r="AJ52" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK52" s="45" t="s">
+      <c r="AH52" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI52" s="75"/>
+      <c r="AJ52" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="AL52" s="81"/>
+      <c r="AK52" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL52" s="79"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
-      <c r="A53" s="55"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" s="49" t="s">
+      <c r="D53" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="F53" s="40" t="s">
+      <c r="E53" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="G53" s="40" t="s">
+      <c r="F53" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="H53" s="65" t="s">
+      <c r="G53" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="I53" s="40" t="s">
+      <c r="H53" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="J53" s="40" t="s">
+      <c r="I53" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="K53" s="65" t="s">
+      <c r="J53" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="K53" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="L53" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="M53" s="40" t="s">
+      <c r="L53" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="N53" s="65" t="s">
+      <c r="M53" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="N53" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="O53" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="P53" s="40" t="s">
+      <c r="O53" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="Q53" s="65" t="s">
+      <c r="P53" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q53" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="R53" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="S53" s="82" t="s">
+      <c r="R53" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="T53" s="80" t="s">
+      <c r="S53" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="T53" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="U53" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="V53" s="40" t="s">
+      <c r="U53" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="W53" s="65" t="s">
+      <c r="V53" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="W53" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="X53" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y53" s="40" t="s">
+      <c r="X53" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="Z53" s="65" t="s">
+      <c r="Y53" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z53" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="AA53" s="64"/>
-      <c r="AB53" s="49"/>
-      <c r="AC53" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD53" s="83"/>
-      <c r="AE53" s="40"/>
-      <c r="AF53" s="57" t="s">
+      <c r="AA53" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB53" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC53" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD53" s="81"/>
+      <c r="AE53" s="38"/>
+      <c r="AF53" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="AG53" s="83"/>
-      <c r="AH53" s="40"/>
-      <c r="AI53" s="57" t="s">
+      <c r="AG53" s="81"/>
+      <c r="AH53" s="38"/>
+      <c r="AI53" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="AJ53" s="84"/>
-      <c r="AK53" s="85"/>
-      <c r="AL53" s="57" t="s">
+      <c r="AJ53" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK53" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL53" s="54" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4145,16 +4152,16 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="55"/>
-      <c r="M54" s="55"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -4181,7 +4188,7 @@
       <c r="AK54" s="1"/>
       <c r="AL54" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4190,7 +4197,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="38"/>
+      <c r="I55" s="36"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -4222,7 +4229,7 @@
       <c r="AL55" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
-      <c r="A56" s="13"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -4230,7 +4237,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="38"/>
+      <c r="I56" s="36"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -4243,8 +4250,8 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
@@ -4262,17 +4269,17 @@
       <c r="AL56" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
-      <c r="A57" s="86"/>
+      <c r="A57" s="82"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="13" t="s">
-        <v>150</v>
+      <c r="C57" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="38"/>
+      <c r="I57" s="36"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -4285,8 +4292,8 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
-      <c r="V57" s="86"/>
-      <c r="W57" s="86"/>
+      <c r="V57" s="82"/>
+      <c r="W57" s="82"/>
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
@@ -4303,7 +4310,7 @@
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4312,7 +4319,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="38"/>
+      <c r="I58" s="36"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -4347,18 +4354,18 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="87" t="s">
-        <v>151</v>
+      <c r="D59" s="83" t="s">
+        <v>156</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="61" t="s">
+      <c r="F59" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="G59" s="62"/>
-      <c r="H59" s="61" t="s">
+      <c r="G59" s="59"/>
+      <c r="H59" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="I59" s="88"/>
+      <c r="I59" s="84"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -4394,19 +4401,19 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E60" s="1"/>
-      <c r="F60" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="G60" s="65" t="s">
+      <c r="F60" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="G60" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="H60" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="I60" s="65" t="s">
+      <c r="H60" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="I60" s="62" t="s">
         <v>86</v>
       </c>
       <c r="J60" s="1"/>
@@ -4444,19 +4451,19 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="G61" s="65" t="s">
+      <c r="F61" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="H61" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="I61" s="65" t="s">
+      <c r="H61" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="I61" s="62" t="s">
         <v>86</v>
       </c>
       <c r="J61" s="1"/>
@@ -4490,15 +4497,15 @@
       <c r="AL61" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
-      <c r="A62" s="13"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="65"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="62"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -4511,8 +4518,8 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
-      <c r="V62" s="13"/>
-      <c r="W62" s="13"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
@@ -4529,18 +4536,18 @@
       <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="20">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="87" t="s">
-        <v>158</v>
+      <c r="D63" s="83" t="s">
+        <v>163</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="65"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="62"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -4571,24 +4578,24 @@
       <c r="AK63" s="1"/>
       <c r="AL63" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="20">
-      <c r="A64" s="86"/>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+      <c r="A64" s="82"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="G64" s="65" t="s">
+      <c r="F64" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="G64" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="H64" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="I64" s="65" t="s">
+      <c r="H64" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="I64" s="62" t="s">
         <v>86</v>
       </c>
       <c r="J64" s="1"/>
@@ -4603,8 +4610,8 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
-      <c r="V64" s="86"/>
-      <c r="W64" s="86"/>
+      <c r="V64" s="82"/>
+      <c r="W64" s="82"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
@@ -4621,24 +4628,24 @@
       <c r="AK64" s="1"/>
       <c r="AL64" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="31">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="E65" s="66"/>
-      <c r="F65" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="G65" s="65" t="s">
+      <c r="D65" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="E65" s="63"/>
+      <c r="F65" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="G65" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="H65" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="I65" s="65" t="s">
+      <c r="H65" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="I65" s="62" t="s">
         <v>86</v>
       </c>
       <c r="J65" s="1"/>
@@ -4671,24 +4678,24 @@
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="47">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="31.5">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="E66" s="66"/>
-      <c r="F66" s="89" t="s">
-        <v>166</v>
-      </c>
-      <c r="G66" s="65" t="s">
+      <c r="D66" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="E66" s="63"/>
+      <c r="F66" s="85" t="s">
+        <v>171</v>
+      </c>
+      <c r="G66" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="H66" s="89" t="s">
-        <v>167</v>
-      </c>
-      <c r="I66" s="65" t="s">
+      <c r="H66" s="85" t="s">
+        <v>172</v>
+      </c>
+      <c r="I66" s="62" t="s">
         <v>86</v>
       </c>
       <c r="J66" s="1"/>
@@ -4727,10 +4734,10 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="65"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="62"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -4766,19 +4773,19 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="64" t="s">
-        <v>169</v>
-      </c>
-      <c r="G68" s="65" t="s">
+      <c r="F68" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="G68" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="H68" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="I68" s="65" t="s">
+      <c r="H68" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="I68" s="62" t="s">
         <v>86</v>
       </c>
       <c r="J68" s="1"/>
@@ -4812,19 +4819,19 @@
       <c r="AL68" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="20">
-      <c r="A69" s="13"/>
+      <c r="A69" s="11"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65" t="s">
+      <c r="F69" s="61"/>
+      <c r="G69" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="H69" s="64"/>
-      <c r="I69" s="65" t="s">
+      <c r="H69" s="61"/>
+      <c r="I69" s="62" t="s">
         <v>86</v>
       </c>
       <c r="J69" s="1"/>
@@ -4839,8 +4846,8 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
-      <c r="V69" s="13"/>
-      <c r="W69" s="13"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
@@ -4863,10 +4870,10 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="65"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="62"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -4901,20 +4908,20 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="E71" s="66"/>
-      <c r="F71" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="G71" s="69" t="s">
+      <c r="D71" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" s="63"/>
+      <c r="F71" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="G71" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="H71" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="I71" s="69" t="s">
+      <c r="H71" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="I71" s="66" t="s">
         <v>86</v>
       </c>
       <c r="J71" s="1"/>
@@ -4956,7 +4963,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="38"/>
+      <c r="I72" s="36"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -4996,7 +5003,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="38"/>
+      <c r="I73" s="36"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -5030,15 +5037,15 @@
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="20">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="13" t="s">
-        <v>175</v>
+      <c r="C74" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="38"/>
+      <c r="I74" s="36"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -5073,20 +5080,20 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="13"/>
+      <c r="D75" s="11"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="90" t="s">
+      <c r="F75" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="G75" s="90"/>
-      <c r="H75" s="90"/>
-      <c r="I75" s="90"/>
-      <c r="J75" s="90" t="s">
+      <c r="G75" s="86"/>
+      <c r="H75" s="86"/>
+      <c r="I75" s="86"/>
+      <c r="J75" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="K75" s="90"/>
-      <c r="L75" s="90"/>
-      <c r="M75" s="90"/>
+      <c r="K75" s="86"/>
+      <c r="L75" s="86"/>
+      <c r="M75" s="86"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
@@ -5119,22 +5126,22 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="67" t="s">
-        <v>176</v>
+      <c r="F76" s="64" t="s">
+        <v>181</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I76" s="65"/>
-      <c r="J76" s="67" t="s">
-        <v>176</v>
+        <v>182</v>
+      </c>
+      <c r="I76" s="62"/>
+      <c r="J76" s="64" t="s">
+        <v>181</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="M76" s="65"/>
+        <v>182</v>
+      </c>
+      <c r="M76" s="62"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -5169,24 +5176,24 @@
         <v>17</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="89"/>
+      <c r="F77" s="85"/>
       <c r="G77" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H77" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="I77" s="65" t="s">
+      <c r="H77" s="87" t="s">
+        <v>183</v>
+      </c>
+      <c r="I77" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="J77" s="89"/>
+      <c r="J77" s="85"/>
       <c r="K77" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L77" s="91" t="s">
-        <v>179</v>
-      </c>
-      <c r="M77" s="65" t="s">
+      <c r="L77" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="M77" s="62" t="s">
         <v>93</v>
       </c>
       <c r="N77" s="1"/>
@@ -5223,24 +5230,24 @@
         <v>18</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="89"/>
+      <c r="F78" s="85"/>
       <c r="G78" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H78" s="91" t="s">
-        <v>180</v>
-      </c>
-      <c r="I78" s="65" t="s">
+      <c r="H78" s="87" t="s">
+        <v>185</v>
+      </c>
+      <c r="I78" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="J78" s="89"/>
+      <c r="J78" s="85"/>
       <c r="K78" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L78" s="91" t="s">
-        <v>181</v>
-      </c>
-      <c r="M78" s="65" t="s">
+      <c r="L78" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="M78" s="62" t="s">
         <v>93</v>
       </c>
       <c r="N78" s="1"/>
@@ -5277,20 +5284,20 @@
         <v>19</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="89"/>
+      <c r="F79" s="85"/>
       <c r="G79" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H79" s="91"/>
-      <c r="I79" s="65" t="s">
+      <c r="H79" s="87"/>
+      <c r="I79" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="J79" s="89"/>
+      <c r="J79" s="85"/>
       <c r="K79" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L79" s="91"/>
-      <c r="M79" s="65" t="s">
+      <c r="L79" s="87"/>
+      <c r="M79" s="62" t="s">
         <v>93</v>
       </c>
       <c r="N79" s="1"/>
@@ -5327,29 +5334,29 @@
         <v>20</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="89"/>
+      <c r="F80" s="85"/>
       <c r="G80" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H80" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="I80" s="65" t="s">
+      <c r="H80" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="I80" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="J80" s="89"/>
+      <c r="J80" s="85"/>
       <c r="K80" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L80" s="91" t="s">
-        <v>183</v>
-      </c>
-      <c r="M80" s="65" t="s">
+      <c r="L80" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="M80" s="62" t="s">
         <v>93</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="13"/>
+      <c r="P80" s="11"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
@@ -5381,25 +5388,25 @@
         <v>21</v>
       </c>
       <c r="E81" s="1"/>
-      <c r="F81" s="89"/>
+      <c r="F81" s="85"/>
       <c r="G81" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H81" s="91"/>
-      <c r="I81" s="65" t="s">
+      <c r="H81" s="87"/>
+      <c r="I81" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="J81" s="89"/>
+      <c r="J81" s="85"/>
       <c r="K81" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L81" s="91"/>
-      <c r="M81" s="65" t="s">
+      <c r="L81" s="87"/>
+      <c r="M81" s="62" t="s">
         <v>93</v>
       </c>
       <c r="N81" s="1"/>
-      <c r="O81" s="47"/>
-      <c r="P81" s="55"/>
+      <c r="O81" s="44"/>
+      <c r="P81" s="52"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
@@ -5426,35 +5433,35 @@
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="20">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="44"/>
+      <c r="C82" s="36"/>
       <c r="D82" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="92"/>
-      <c r="G82" s="72" t="s">
+      <c r="F82" s="88"/>
+      <c r="G82" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="H82" s="93"/>
-      <c r="I82" s="69" t="s">
+      <c r="H82" s="89"/>
+      <c r="I82" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="J82" s="92"/>
-      <c r="K82" s="72" t="s">
+      <c r="J82" s="88"/>
+      <c r="K82" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="L82" s="93"/>
-      <c r="M82" s="69" t="s">
+      <c r="L82" s="89"/>
+      <c r="M82" s="66" t="s">
         <v>93</v>
       </c>
       <c r="N82" s="1"/>
-      <c r="O82" s="47"/>
-      <c r="P82" s="55"/>
-      <c r="Q82" s="55"/>
-      <c r="R82" s="55"/>
-      <c r="S82" s="55"/>
-      <c r="T82" s="55"/>
-      <c r="U82" s="55"/>
+      <c r="O82" s="44"/>
+      <c r="P82" s="52"/>
+      <c r="Q82" s="52"/>
+      <c r="R82" s="52"/>
+      <c r="S82" s="52"/>
+      <c r="T82" s="52"/>
+      <c r="U82" s="52"/>
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
@@ -5476,20 +5483,20 @@
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="20">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="44"/>
+      <c r="C83" s="36"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="38"/>
+      <c r="I83" s="36"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
-      <c r="O83" s="47"/>
-      <c r="P83" s="55"/>
+      <c r="O83" s="44"/>
+      <c r="P83" s="52"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
@@ -5516,25 +5523,25 @@
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="20">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="44"/>
+      <c r="C84" s="36"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="38"/>
+      <c r="I84" s="36"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
-      <c r="O84" s="47"/>
-      <c r="P84" s="55"/>
-      <c r="Q84" s="55"/>
-      <c r="R84" s="55"/>
-      <c r="S84" s="55"/>
-      <c r="T84" s="55"/>
-      <c r="U84" s="55"/>
+      <c r="O84" s="44"/>
+      <c r="P84" s="52"/>
+      <c r="Q84" s="52"/>
+      <c r="R84" s="52"/>
+      <c r="S84" s="52"/>
+      <c r="T84" s="52"/>
+      <c r="U84" s="52"/>
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
@@ -5556,22 +5563,22 @@
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="20">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="13" t="s">
-        <v>184</v>
+      <c r="C85" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="38"/>
+      <c r="I85" s="36"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="55"/>
+      <c r="P85" s="52"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
@@ -5598,24 +5605,24 @@
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="20">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="44"/>
+      <c r="C86" s="36"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="61" t="s">
+      <c r="F86" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="G86" s="62"/>
-      <c r="H86" s="61" t="s">
+      <c r="G86" s="59"/>
+      <c r="H86" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="I86" s="62"/>
+      <c r="I86" s="59"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
-      <c r="P86" s="55"/>
+      <c r="P86" s="52"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
@@ -5644,16 +5651,16 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="H87" s="54"/>
-      <c r="I87" s="65" t="s">
-        <v>186</v>
+      <c r="F87" s="51"/>
+      <c r="G87" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="H87" s="51"/>
+      <c r="I87" s="62" t="s">
+        <v>191</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -5661,7 +5668,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
-      <c r="P87" s="55"/>
+      <c r="P87" s="52"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
@@ -5690,15 +5697,15 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="54"/>
-      <c r="G88" s="65" t="s">
+      <c r="F88" s="51"/>
+      <c r="G88" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="H88" s="54"/>
-      <c r="I88" s="65" t="s">
+      <c r="H88" s="51"/>
+      <c r="I88" s="62" t="s">
         <v>59</v>
       </c>
       <c r="J88" s="1"/>
@@ -5707,12 +5714,12 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
-      <c r="P88" s="55"/>
-      <c r="Q88" s="55"/>
-      <c r="R88" s="55"/>
-      <c r="S88" s="55"/>
-      <c r="T88" s="55"/>
-      <c r="U88" s="55"/>
+      <c r="P88" s="52"/>
+      <c r="Q88" s="52"/>
+      <c r="R88" s="52"/>
+      <c r="S88" s="52"/>
+      <c r="T88" s="52"/>
+      <c r="U88" s="52"/>
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
@@ -5732,19 +5739,19 @@
       <c r="AL88" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="20">
-      <c r="A89" s="13"/>
+      <c r="A89" s="11"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="65" t="s">
+      <c r="F89" s="51"/>
+      <c r="G89" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="H89" s="54"/>
-      <c r="I89" s="65" t="s">
+      <c r="H89" s="51"/>
+      <c r="I89" s="62" t="s">
         <v>93</v>
       </c>
       <c r="J89" s="1"/>
@@ -5753,14 +5760,14 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
-      <c r="P89" s="55"/>
-      <c r="Q89" s="55"/>
-      <c r="R89" s="55"/>
-      <c r="S89" s="55"/>
-      <c r="T89" s="55"/>
-      <c r="U89" s="55"/>
-      <c r="V89" s="13"/>
-      <c r="W89" s="13"/>
+      <c r="P89" s="52"/>
+      <c r="Q89" s="52"/>
+      <c r="R89" s="52"/>
+      <c r="S89" s="52"/>
+      <c r="T89" s="52"/>
+      <c r="U89" s="52"/>
+      <c r="V89" s="11"/>
+      <c r="W89" s="11"/>
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
@@ -5778,15 +5785,15 @@
       <c r="AL89" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="20">
-      <c r="A90" s="13"/>
+      <c r="A90" s="11"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="94"/>
-      <c r="G90" s="95"/>
-      <c r="H90" s="94"/>
-      <c r="I90" s="95"/>
+      <c r="F90" s="90"/>
+      <c r="G90" s="91"/>
+      <c r="H90" s="90"/>
+      <c r="I90" s="91"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -5799,8 +5806,8 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
-      <c r="V90" s="13"/>
-      <c r="W90" s="13"/>
+      <c r="V90" s="11"/>
+      <c r="W90" s="11"/>
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
@@ -5818,23 +5825,23 @@
       <c r="AL90" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="20">
-      <c r="A91" s="13"/>
+      <c r="A91" s="11"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="44"/>
+      <c r="C91" s="36"/>
       <c r="D91" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="G91" s="65" t="s">
+      <c r="F91" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G91" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="H91" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="I91" s="65" t="s">
+      <c r="H91" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="I91" s="62" t="s">
         <v>93</v>
       </c>
       <c r="J91" s="1"/>
@@ -5844,13 +5851,13 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
-      <c r="Q91" s="55"/>
-      <c r="R91" s="55"/>
-      <c r="S91" s="55"/>
-      <c r="T91" s="55"/>
-      <c r="U91" s="55"/>
-      <c r="V91" s="13"/>
-      <c r="W91" s="13"/>
+      <c r="Q91" s="52"/>
+      <c r="R91" s="52"/>
+      <c r="S91" s="52"/>
+      <c r="T91" s="52"/>
+      <c r="U91" s="52"/>
+      <c r="V91" s="11"/>
+      <c r="W91" s="11"/>
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
@@ -5870,13 +5877,13 @@
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="20">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="44"/>
+      <c r="C92" s="36"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="65"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="65"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="62"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -5884,11 +5891,11 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
-      <c r="Q92" s="55"/>
-      <c r="R92" s="55"/>
-      <c r="S92" s="55"/>
-      <c r="T92" s="55"/>
-      <c r="U92" s="55"/>
+      <c r="Q92" s="52"/>
+      <c r="R92" s="52"/>
+      <c r="S92" s="52"/>
+      <c r="T92" s="52"/>
+      <c r="U92" s="52"/>
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
@@ -5910,21 +5917,21 @@
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="20">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="44"/>
+      <c r="C93" s="36"/>
       <c r="D93" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="G93" s="65" t="s">
+      <c r="F93" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="G93" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="H93" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="I93" s="65" t="s">
+      <c r="H93" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="I93" s="62" t="s">
         <v>93</v>
       </c>
       <c r="J93" s="1"/>
@@ -5933,7 +5940,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
-      <c r="P93" s="55"/>
+      <c r="P93" s="52"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
@@ -5963,10 +5970,10 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="65"/>
-      <c r="H94" s="67"/>
-      <c r="I94" s="65"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="62"/>
+      <c r="H94" s="64"/>
+      <c r="I94" s="62"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -6003,10 +6010,10 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="65"/>
-      <c r="H95" s="67"/>
-      <c r="I95" s="65"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="62"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="62"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -6040,15 +6047,15 @@
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="13" t="s">
-        <v>195</v>
+      <c r="C96" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="65"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="62"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="62"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -6085,14 +6092,14 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="76" t="s">
+      <c r="F97" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="G97" s="65"/>
-      <c r="H97" s="76" t="s">
+      <c r="G97" s="62"/>
+      <c r="H97" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="I97" s="65"/>
+      <c r="I97" s="62"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -6128,19 +6135,19 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E98" s="1"/>
-      <c r="F98" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="G98" s="65" t="s">
+      <c r="F98" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="G98" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="H98" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="I98" s="65" t="s">
+      <c r="H98" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="I98" s="62" t="s">
         <v>93</v>
       </c>
       <c r="J98" s="1"/>
@@ -6178,15 +6185,15 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E99" s="1"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="65" t="s">
+      <c r="F99" s="51"/>
+      <c r="G99" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="H99" s="54"/>
-      <c r="I99" s="65" t="s">
+      <c r="H99" s="51"/>
+      <c r="I99" s="62" t="s">
         <v>93</v>
       </c>
       <c r="J99" s="1"/>
@@ -6225,10 +6232,10 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="65"/>
-      <c r="H100" s="67"/>
-      <c r="I100" s="65"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="62"/>
+      <c r="H100" s="64"/>
+      <c r="I100" s="62"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -6263,16 +6270,16 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="E101" s="66"/>
-      <c r="F101" s="68"/>
-      <c r="G101" s="69" t="s">
+      <c r="D101" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="E101" s="63"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H101" s="68"/>
-      <c r="I101" s="69" t="s">
+      <c r="H101" s="65"/>
+      <c r="I101" s="66" t="s">
         <v>93</v>
       </c>
       <c r="J101" s="1"/>
@@ -6314,7 +6321,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="38"/>
+      <c r="I102" s="36"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -6354,7 +6361,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="38"/>
+      <c r="I103" s="36"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -6394,7 +6401,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="38"/>
+      <c r="I104" s="36"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -6434,7 +6441,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="38"/>
+      <c r="I105" s="36"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
@@ -6474,7 +6481,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="38"/>
+      <c r="I106" s="36"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -6514,7 +6521,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
-      <c r="I107" s="38"/>
+      <c r="I107" s="36"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -6554,7 +6561,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
-      <c r="I108" s="38"/>
+      <c r="I108" s="36"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -6594,7 +6601,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
-      <c r="I109" s="38"/>
+      <c r="I109" s="36"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -6634,7 +6641,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
-      <c r="I110" s="38"/>
+      <c r="I110" s="36"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -6674,7 +6681,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
-      <c r="I111" s="38"/>
+      <c r="I111" s="36"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -6714,7 +6721,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
-      <c r="I112" s="38"/>
+      <c r="I112" s="36"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
@@ -6754,7 +6761,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
-      <c r="I113" s="38"/>
+      <c r="I113" s="36"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -6794,7 +6801,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
-      <c r="I114" s="38"/>
+      <c r="I114" s="36"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
@@ -6834,7 +6841,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
-      <c r="I115" s="38"/>
+      <c r="I115" s="36"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -6874,7 +6881,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-      <c r="I116" s="38"/>
+      <c r="I116" s="36"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -6914,7 +6921,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
-      <c r="I117" s="38"/>
+      <c r="I117" s="36"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
@@ -6954,7 +6961,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-      <c r="I118" s="38"/>
+      <c r="I118" s="36"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
@@ -6994,7 +7001,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
-      <c r="I119" s="38"/>
+      <c r="I119" s="36"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -7034,7 +7041,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
-      <c r="I120" s="38"/>
+      <c r="I120" s="36"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -7074,7 +7081,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
-      <c r="I121" s="38"/>
+      <c r="I121" s="36"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
@@ -7114,7 +7121,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
-      <c r="I122" s="38"/>
+      <c r="I122" s="36"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
@@ -7154,7 +7161,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
-      <c r="I123" s="38"/>
+      <c r="I123" s="36"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
@@ -7194,7 +7201,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
-      <c r="I124" s="38"/>
+      <c r="I124" s="36"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
@@ -7234,7 +7241,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
-      <c r="I125" s="38"/>
+      <c r="I125" s="36"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
@@ -7274,7 +7281,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
-      <c r="I126" s="38"/>
+      <c r="I126" s="36"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -7314,7 +7321,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
-      <c r="I127" s="38"/>
+      <c r="I127" s="36"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
@@ -7354,7 +7361,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
-      <c r="I128" s="38"/>
+      <c r="I128" s="36"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
@@ -7394,7 +7401,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
-      <c r="I129" s="38"/>
+      <c r="I129" s="36"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -7434,7 +7441,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
-      <c r="I130" s="38"/>
+      <c r="I130" s="36"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -7474,7 +7481,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
-      <c r="I131" s="38"/>
+      <c r="I131" s="36"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -7514,7 +7521,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
-      <c r="I132" s="38"/>
+      <c r="I132" s="36"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -7554,7 +7561,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
-      <c r="I133" s="38"/>
+      <c r="I133" s="36"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
@@ -7594,7 +7601,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
-      <c r="I134" s="38"/>
+      <c r="I134" s="36"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
@@ -7634,7 +7641,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
-      <c r="I135" s="38"/>
+      <c r="I135" s="36"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
@@ -7674,7 +7681,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
-      <c r="I136" s="38"/>
+      <c r="I136" s="36"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
@@ -7714,7 +7721,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
-      <c r="I137" s="38"/>
+      <c r="I137" s="36"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
@@ -7754,7 +7761,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
-      <c r="I138" s="38"/>
+      <c r="I138" s="36"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
@@ -7794,7 +7801,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
-      <c r="I139" s="38"/>
+      <c r="I139" s="36"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
@@ -7834,7 +7841,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
-      <c r="I140" s="38"/>
+      <c r="I140" s="36"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
@@ -7874,7 +7881,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
-      <c r="I141" s="38"/>
+      <c r="I141" s="36"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
@@ -7914,7 +7921,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
-      <c r="I142" s="38"/>
+      <c r="I142" s="36"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -7954,7 +7961,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
-      <c r="I143" s="38"/>
+      <c r="I143" s="36"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
@@ -7994,7 +8001,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
-      <c r="I144" s="38"/>
+      <c r="I144" s="36"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -8034,7 +8041,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
-      <c r="I145" s="38"/>
+      <c r="I145" s="36"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -8074,7 +8081,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
-      <c r="I146" s="38"/>
+      <c r="I146" s="36"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -8114,7 +8121,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
-      <c r="I147" s="38"/>
+      <c r="I147" s="36"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -8154,7 +8161,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
-      <c r="I148" s="38"/>
+      <c r="I148" s="36"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -8194,7 +8201,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
-      <c r="I149" s="38"/>
+      <c r="I149" s="36"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -8234,7 +8241,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
-      <c r="I150" s="55"/>
+      <c r="I150" s="52"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
@@ -8302,30 +8309,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="2.5764285714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="3.5764285714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="34.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="2.5764285714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="3.5764285714285715" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="34.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="34" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="34" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="34" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="34" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="34" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="34" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="34" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="34" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="34" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="34" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -8333,16 +8340,16 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -8357,20 +8364,20 @@
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -8387,16 +8394,16 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -8411,20 +8418,20 @@
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -8441,16 +8448,16 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -8465,74 +8472,74 @@
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="18"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="21"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -8542,25 +8549,25 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="24"/>
+      <c r="X8" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -8570,23 +8577,23 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="24"/>
+      <c r="X9" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -8596,7 +8603,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="24"/>
+      <c r="X10" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="1"/>
@@ -8605,16 +8612,16 @@
       <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -8624,23 +8631,23 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="24"/>
+      <c r="X11" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -8650,7 +8657,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="24"/>
+      <c r="X12" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="1"/>
@@ -8659,16 +8666,16 @@
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -8678,7 +8685,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="24"/>
+      <c r="X13" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="1"/>
@@ -8687,16 +8694,16 @@
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -8706,7 +8713,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="24"/>
+      <c r="X14" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="1"/>
@@ -8715,16 +8722,16 @@
       <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -8734,7 +8741,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-      <c r="X15" s="24"/>
+      <c r="X15" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="1"/>
@@ -8743,16 +8750,16 @@
       <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -8762,7 +8769,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="24"/>
+      <c r="X16" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="1"/>
@@ -8771,16 +8778,16 @@
       <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -8790,7 +8797,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="24"/>
+      <c r="X17" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="1"/>
@@ -8799,16 +8806,16 @@
       <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -8818,7 +8825,7 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-      <c r="X18" s="24"/>
+      <c r="X18" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="1"/>
@@ -8827,16 +8834,16 @@
       <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -8846,7 +8853,7 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="24"/>
+      <c r="X19" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="1"/>
@@ -8855,16 +8862,16 @@
       <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -8874,23 +8881,23 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-      <c r="X20" s="24"/>
+      <c r="X20" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -8900,7 +8907,7 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="24"/>
+      <c r="X21" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="1"/>
@@ -8909,16 +8916,16 @@
       <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -8928,7 +8935,7 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="24"/>
+      <c r="X22" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="1"/>
@@ -8937,16 +8944,16 @@
       <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -8956,23 +8963,23 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="24"/>
+      <c r="X23" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -8982,77 +8989,77 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="24"/>
+      <c r="X24" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="28"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="28"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -9062,25 +9069,25 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="24"/>
+      <c r="X27" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -9090,23 +9097,23 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="24"/>
+      <c r="X28" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -9116,7 +9123,7 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="24"/>
+      <c r="X29" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="1"/>
@@ -9125,16 +9132,16 @@
       <c r="D30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -9144,7 +9151,7 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="24"/>
+      <c r="X30" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="1"/>
@@ -9153,16 +9160,16 @@
       <c r="D31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -9172,7 +9179,7 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="24"/>
+      <c r="X31" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="1"/>
@@ -9181,16 +9188,16 @@
       <c r="D32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -9200,23 +9207,23 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="24"/>
+      <c r="X32" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -9226,77 +9233,77 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="24"/>
+      <c r="X33" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="27"/>
-      <c r="X34" s="28"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="13"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="28"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -9306,25 +9313,25 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
-      <c r="X36" s="24"/>
+      <c r="X36" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -9334,23 +9341,23 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
-      <c r="X37" s="24"/>
+      <c r="X37" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="13"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -9360,7 +9367,7 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
-      <c r="X38" s="24"/>
+      <c r="X38" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20">
       <c r="A39" s="1"/>
@@ -9369,16 +9376,16 @@
       <c r="D39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -9388,7 +9395,7 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="24"/>
+      <c r="X39" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="1"/>
@@ -9397,16 +9404,16 @@
       <c r="D40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -9416,7 +9423,7 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="24"/>
+      <c r="X40" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="1"/>
@@ -9425,16 +9432,16 @@
       <c r="D41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -9444,23 +9451,23 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
-      <c r="X41" s="24"/>
+      <c r="X41" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -9470,25 +9477,25 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="24"/>
+      <c r="X42" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -9498,23 +9505,23 @@
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
-      <c r="X43" s="24"/>
+      <c r="X43" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -9524,51 +9531,51 @@
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
-      <c r="X44" s="24"/>
+      <c r="X44" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="34"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="32"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -9585,16 +9592,16 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -9610,19 +9617,19 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="35"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -9639,16 +9646,16 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -9665,16 +9672,16 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -9691,16 +9698,16 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -9717,16 +9724,16 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -9743,16 +9750,16 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -9769,16 +9776,16 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
@@ -9795,16 +9802,16 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -9821,16 +9828,16 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
@@ -9847,16 +9854,16 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -9873,16 +9880,16 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
@@ -9899,16 +9906,16 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
@@ -9925,16 +9932,16 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
@@ -9951,16 +9958,16 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -9977,16 +9984,16 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -10003,16 +10010,16 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
@@ -10029,16 +10036,16 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -10055,16 +10062,16 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -10081,16 +10088,16 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -10107,16 +10114,16 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -10133,16 +10140,16 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -10159,16 +10166,16 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -10185,16 +10192,16 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -10211,16 +10218,16 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -10237,16 +10244,16 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -10263,16 +10270,16 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -10289,16 +10296,16 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -10315,16 +10322,16 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -10341,16 +10348,16 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -10367,16 +10374,16 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -10393,16 +10400,16 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -10419,16 +10426,16 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -10445,16 +10452,16 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -10471,16 +10478,16 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -10497,16 +10504,16 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -10523,16 +10530,16 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -10549,16 +10556,16 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -10575,16 +10582,16 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -10601,16 +10608,16 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -10627,16 +10634,16 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -10653,16 +10660,16 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -10679,16 +10686,16 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -10705,16 +10712,16 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="23"/>
-      <c r="M90" s="23"/>
-      <c r="N90" s="23"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -10731,16 +10738,16 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="23"/>
-      <c r="M91" s="23"/>
-      <c r="N91" s="23"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -10757,16 +10764,16 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="23"/>
-      <c r="M92" s="23"/>
-      <c r="N92" s="23"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -10783,16 +10790,16 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="23"/>
-      <c r="M93" s="23"/>
-      <c r="N93" s="23"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -10809,16 +10816,16 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="23"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="23"/>
-      <c r="M94" s="23"/>
-      <c r="N94" s="23"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -10846,11 +10853,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="3.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="1.290714285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="3.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="1.290714285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -10907,7 +10914,7 @@
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>5000000</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -10918,7 +10925,7 @@
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>3000000</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -10929,7 +10936,7 @@
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>0.02</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -10940,7 +10947,7 @@
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>36000</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -10951,7 +10958,7 @@
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>0.45</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -10962,7 +10969,7 @@
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>0.01</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -10973,7 +10980,7 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="5">
+      <c r="C14" s="2">
         <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -10984,7 +10991,7 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="5">
+      <c r="C15" s="2">
         <v>36000</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -10995,7 +11002,7 @@
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="5">
+      <c r="C16" s="2">
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -11024,7 +11031,7 @@
       <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="3">
         <f>((capexdiscounted/projectyears)+(opexdiscounted/projectyears)+(systemcapacitykwh*costtochargeperkwh*annualcyclesrequired*(1+systemlosses))+(systemcapacitykwh*365*dailyselfdischargerate*costtochargeperkwh))/(annualcyclesrequired*percycleoutputkwh)</f>
       </c>
     </row>
